--- a/SignIn.xlsx
+++ b/SignIn.xlsx
@@ -540,7 +540,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>21:47:10</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
